--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_1/Product_TOC_Ingestion_NoAlignUsecase-1.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_1/Product_TOC_Ingestion_NoAlignUsecase-1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5820" tabRatio="454"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -354,14 +359,14 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_J1</t>
+    <t>Feldman_Product_TOC_K1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,21 +740,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -769,17 +774,17 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -787,13 +792,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -801,13 +806,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -815,7 +820,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -823,7 +828,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -831,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -839,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -847,7 +852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -897,7 +902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -921,7 +926,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -945,7 +950,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -970,7 +975,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -991,7 +996,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1012,7 +1017,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1033,7 +1038,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1054,7 +1059,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1075,7 +1080,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1096,7 +1101,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1117,7 +1122,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1136,7 +1141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1155,7 +1160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1176,7 +1181,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1197,7 +1202,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1218,7 +1223,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1239,7 +1244,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1260,7 +1265,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1281,7 +1286,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1302,7 +1307,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1323,7 +1328,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1344,7 +1349,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1365,7 +1370,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1386,7 +1391,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1407,7 +1412,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1426,7 +1431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1447,7 +1452,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1468,7 +1473,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1489,7 +1494,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1510,7 +1515,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1531,7 +1536,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1552,7 +1557,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1573,7 +1578,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1594,7 +1599,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1615,7 +1620,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1636,7 +1641,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1657,7 +1662,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1678,7 +1683,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1699,7 +1704,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1720,7 +1725,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1741,7 +1746,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1762,7 +1767,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1783,7 +1788,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1804,7 +1809,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1825,7 +1830,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1846,7 +1851,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -1867,7 +1872,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -1888,7 +1893,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -1909,7 +1914,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -1930,7 +1935,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -1951,7 +1956,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -1972,7 +1977,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -1993,7 +1998,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -2012,7 +2017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -2033,7 +2038,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -2054,7 +2059,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2075,7 +2080,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2096,7 +2101,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2117,7 +2122,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2138,7 +2143,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2159,7 +2164,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2180,7 +2185,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2201,7 +2206,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2222,7 +2227,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2243,7 +2248,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2264,7 +2269,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2285,7 +2290,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2306,7 +2311,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2322,7 +2327,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2338,7 +2343,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2354,7 +2359,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2375,7 +2380,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2391,7 +2396,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2407,7 +2412,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2423,7 +2428,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2444,7 +2449,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2460,7 +2465,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2476,7 +2481,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2492,7 +2497,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2513,7 +2518,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="4">
         <v>3</v>
       </c>

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_1/Product_TOC_Ingestion_NoAlignUsecase-1.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_1/Product_TOC_Ingestion_NoAlignUsecase-1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5820" tabRatio="454"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -359,14 +354,14 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_K1</t>
+    <t>Feldman_Product_TOC_J1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,21 +735,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -774,17 +769,17 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -792,13 +787,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -806,13 +801,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -820,7 +815,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -828,7 +823,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -836,7 +831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -844,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -852,7 +847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -902,7 +897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -926,7 +921,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -950,7 +945,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -975,7 +970,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -996,7 +991,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1017,7 +1012,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1038,7 +1033,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1059,7 +1054,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1080,7 +1075,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1101,7 +1096,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1122,7 +1117,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1141,7 +1136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1160,7 +1155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1181,7 +1176,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1202,7 +1197,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1223,7 +1218,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1244,7 +1239,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1265,7 +1260,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1286,7 +1281,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1307,7 +1302,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1328,7 +1323,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1349,7 +1344,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1370,7 +1365,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1391,7 +1386,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1412,7 +1407,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1431,7 +1426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1452,7 +1447,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1473,7 +1468,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1494,7 +1489,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1515,7 +1510,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1536,7 +1531,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1557,7 +1552,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1578,7 +1573,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1599,7 +1594,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1620,7 +1615,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1641,7 +1636,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1662,7 +1657,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1683,7 +1678,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1704,7 +1699,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1725,7 +1720,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1746,7 +1741,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1767,7 +1762,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1788,7 +1783,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1809,7 +1804,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1830,7 +1825,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1851,7 +1846,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -1872,7 +1867,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -1893,7 +1888,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -1914,7 +1909,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -1935,7 +1930,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -1956,7 +1951,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -1977,7 +1972,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -1998,7 +1993,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -2017,7 +2012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -2038,7 +2033,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -2059,7 +2054,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2080,7 +2075,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2101,7 +2096,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2122,7 +2117,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2143,7 +2138,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2164,7 +2159,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2185,7 +2180,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2206,7 +2201,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2227,7 +2222,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2248,7 +2243,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2269,7 +2264,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2290,7 +2285,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2311,7 +2306,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2327,7 +2322,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2343,7 +2338,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2359,7 +2354,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2380,7 +2375,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2396,7 +2391,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2412,7 +2407,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2428,7 +2423,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2449,7 +2444,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2465,7 +2460,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2481,7 +2476,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2497,7 +2492,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2518,7 +2513,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C92" s="4">
         <v>3</v>
       </c>

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_1/Product_TOC_Ingestion_NoAlignUsecase-1.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_1/Product_TOC_Ingestion_NoAlignUsecase-1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5820" tabRatio="454"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -354,14 +359,14 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_J1</t>
+    <t>Feldman_Product_TOC_EditorTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,7 +528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -558,7 +563,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -735,21 +740,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -769,17 +774,17 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -787,13 +792,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -801,13 +806,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -815,7 +820,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -823,7 +828,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -831,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -839,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -847,7 +852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -897,7 +902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -921,7 +926,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -945,7 +950,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -970,7 +975,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -991,7 +996,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1012,7 +1017,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1033,7 +1038,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1054,7 +1059,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1075,7 +1080,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1096,7 +1101,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1117,7 +1122,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1136,7 +1141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1155,7 +1160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1176,7 +1181,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1197,7 +1202,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1218,7 +1223,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1239,7 +1244,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1260,7 +1265,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1281,7 +1286,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1302,7 +1307,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1323,7 +1328,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1344,7 +1349,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1365,7 +1370,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1386,7 +1391,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1407,7 +1412,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1426,7 +1431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1447,7 +1452,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1468,7 +1473,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1489,7 +1494,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1510,7 +1515,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1531,7 +1536,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1552,7 +1557,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1573,7 +1578,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1594,7 +1599,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1615,7 +1620,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1636,7 +1641,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1657,7 +1662,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1678,7 +1683,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1699,7 +1704,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1720,7 +1725,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1741,7 +1746,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1762,7 +1767,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1783,7 +1788,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1804,7 +1809,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1825,7 +1830,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1846,7 +1851,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -1867,7 +1872,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -1888,7 +1893,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -1909,7 +1914,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -1930,7 +1935,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -1951,7 +1956,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -1972,7 +1977,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -1993,7 +1998,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -2012,7 +2017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -2033,7 +2038,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -2054,7 +2059,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2075,7 +2080,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2096,7 +2101,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2117,7 +2122,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2138,7 +2143,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2159,7 +2164,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2180,7 +2185,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2201,7 +2206,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2222,7 +2227,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2243,7 +2248,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2264,7 +2269,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2285,7 +2290,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2306,7 +2311,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2322,7 +2327,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2338,7 +2343,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2354,7 +2359,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2375,7 +2380,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2391,7 +2396,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2407,7 +2412,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2423,7 +2428,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2444,7 +2449,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2460,7 +2465,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2476,7 +2481,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2492,7 +2497,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2513,7 +2518,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="4">
         <v>3</v>
       </c>

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_1/Product_TOC_Ingestion_NoAlignUsecase-1.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_1/Product_TOC_Ingestion_NoAlignUsecase-1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="112">
   <si>
     <t>Program Title</t>
   </si>
@@ -359,7 +359,7 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_EditorTest</t>
+    <t>Feldman_Product_TOC_EditorTest-22Feb_7:06-1</t>
   </si>
 </sst>
 </file>
@@ -415,12 +415,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -450,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -467,6 +473,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -917,9 +926,7 @@
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G13" s="9"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>17</v>

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_1/Product_TOC_Ingestion_NoAlignUsecase-1.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_1/Product_TOC_Ingestion_NoAlignUsecase-1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5820" tabRatio="454"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -359,14 +354,14 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_EditorTest-22Feb_7:06-1</t>
+    <t>Feldman_Product_TOC_25Feb-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -572,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -749,21 +744,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -783,17 +778,17 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -801,13 +796,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -815,13 +810,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -829,7 +824,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -837,7 +832,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -845,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -853,7 +848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -861,7 +856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,7 +906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -933,7 +928,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -957,7 +952,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -982,7 +977,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1003,7 +998,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1024,7 +1019,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1045,7 +1040,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1066,7 +1061,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1087,7 +1082,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1108,7 +1103,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1129,7 +1124,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1148,7 +1143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1167,7 +1162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1188,7 +1183,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1209,7 +1204,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1230,7 +1225,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1251,7 +1246,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1272,7 +1267,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1293,7 +1288,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1314,7 +1309,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1335,7 +1330,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1356,7 +1351,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1377,7 +1372,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1398,7 +1393,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1419,7 +1414,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1438,7 +1433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1459,7 +1454,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1480,7 +1475,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1501,7 +1496,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1522,7 +1517,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1543,7 +1538,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1564,7 +1559,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1585,7 +1580,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1606,7 +1601,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1627,7 +1622,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1648,7 +1643,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1669,7 +1664,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1690,7 +1685,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1711,7 +1706,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1732,7 +1727,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1753,7 +1748,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1774,7 +1769,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1795,7 +1790,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1816,7 +1811,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1837,7 +1832,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1858,7 +1853,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -1879,7 +1874,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -1900,7 +1895,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -1921,7 +1916,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -1942,7 +1937,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -1963,7 +1958,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -1984,7 +1979,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -2005,7 +2000,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -2024,7 +2019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -2045,7 +2040,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -2066,7 +2061,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2087,7 +2082,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2108,7 +2103,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2129,7 +2124,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2150,7 +2145,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2171,7 +2166,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2192,7 +2187,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2213,7 +2208,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2234,7 +2229,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2255,7 +2250,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2276,7 +2271,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2297,7 +2292,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2318,7 +2313,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2334,7 +2329,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2350,7 +2345,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2366,7 +2361,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2387,7 +2382,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2403,7 +2398,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2419,7 +2414,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2435,7 +2430,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2456,7 +2451,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2472,7 +2467,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2488,7 +2483,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2504,7 +2499,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2525,7 +2520,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C92" s="4">
         <v>3</v>
       </c>
